--- a/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.31691598819401</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.914357394639874</v>
+        <v>1.914357394639875</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.089096805360234</v>
@@ -655,7 +655,7 @@
         <v>4.532372592011898</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.5785521932829031</v>
+        <v>0.5785521932829027</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.550560995899452</v>
@@ -664,7 +664,7 @@
         <v>2.750480318779459</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.28042368993439</v>
+        <v>1.280423689934389</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.05455690005069255</v>
+        <v>-0.009151357940653734</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5628965003341653</v>
+        <v>-0.4384237084243801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.03318857299054775</v>
+        <v>0.2418661322817209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.084255196956226</v>
+        <v>-1.084992434807201</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.461356147483101</v>
+        <v>1.869736883534607</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.38905833255611</v>
+        <v>-1.495723384753953</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09924065584709751</v>
+        <v>0.01093851584305301</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.134664474564288</v>
+        <v>1.11141576546636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.1169077475408943</v>
+        <v>0.04326020233377165</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.253375373504024</v>
+        <v>4.248616271379337</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.338926940250302</v>
+        <v>3.634371699226001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.041918992229238</v>
+        <v>4.258636869283523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.520812301432659</v>
+        <v>3.599495484599798</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.008483702810059</v>
+        <v>8.150665461433254</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.231954359930286</v>
+        <v>2.12685135175175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.306306579360056</v>
+        <v>3.329792555055555</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.756418949988354</v>
+        <v>4.682996826328578</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.583798981488846</v>
+        <v>2.603414244258796</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.7763531654515784</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.128559024613612</v>
+        <v>1.128559024613613</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6730157626779312</v>
@@ -760,7 +760,7 @@
         <v>2.800814566474181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3575207857509891</v>
+        <v>0.3575207857509889</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.9309242476726552</v>
@@ -769,7 +769,7 @@
         <v>1.651330601162788</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7687394842296886</v>
+        <v>0.7687394842296883</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1806160794984209</v>
+        <v>-0.08860180803874027</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2945529769225415</v>
+        <v>-0.2800997163058441</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1025277529652754</v>
+        <v>-0.0307341479937569</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5274574404933468</v>
+        <v>-0.5311963259408028</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3177209412538063</v>
+        <v>0.3526072198990921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5063951083985493</v>
+        <v>-0.531472830354257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.002691718623818</v>
+        <v>-0.04497279251984306</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4258838452351922</v>
+        <v>0.4121108809669609</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1064399525857939</v>
+        <v>-0.04129572763625637</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.967624144725156</v>
+        <v>4.355881165685267</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.488651032690143</v>
+        <v>3.817351760134805</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.98413409141513</v>
+        <v>4.634146107800201</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.876681289733185</v>
+        <v>5.978803232196078</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>10.53881505702632</v>
+        <v>12.41442500188551</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.721410474929423</v>
+        <v>3.910708885966323</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.201944974325132</v>
+        <v>3.090169857359656</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.306323089868861</v>
+        <v>4.430281171702497</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.290376044730608</v>
+        <v>2.50565692137893</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.1883010231759685</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.919115472560899</v>
+        <v>-0.9191154725608993</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.18454636593253</v>
@@ -878,7 +878,7 @@
         <v>0.5634624667329814</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.02366271109106172</v>
+        <v>0.02366271109106241</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.066449868721924</v>
+        <v>-2.306754102617948</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.499111538628866</v>
+        <v>-2.596011681033134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.400255670323959</v>
+        <v>-3.303495738460487</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.690241377262797</v>
+        <v>-1.490885080450467</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.813049776865356</v>
+        <v>-1.742500888623441</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.633802248479303</v>
+        <v>-1.676570701427165</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.102455786590781</v>
+        <v>-0.9600061925653642</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.202432775961792</v>
+        <v>-1.312300215538789</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.834104001650569</v>
+        <v>-1.566192287807035</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.564729822986228</v>
+        <v>3.331605820816116</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.732133217897156</v>
+        <v>2.754053028153042</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.455111956383206</v>
+        <v>1.808740649112953</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.374229134785961</v>
+        <v>4.489045780282365</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.594568059261216</v>
+        <v>3.821791101801904</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.641442530145392</v>
+        <v>3.407849221038165</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.069097928827795</v>
+        <v>3.054310714177418</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.594498985734369</v>
+        <v>2.743337664118258</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.724199340273369</v>
+        <v>1.822144474891363</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.05559804217270368</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2713794112380956</v>
+        <v>-0.2713794112380957</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.348442826000729</v>
@@ -983,7 +983,7 @@
         <v>0.1660549936107331</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.006973510341907002</v>
+        <v>0.006973510341907207</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4639931408131242</v>
+        <v>-0.5036869231881596</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5424222797747733</v>
+        <v>-0.5800631179856685</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6846613978590693</v>
+        <v>-0.6988854151035474</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3518940339388142</v>
+        <v>-0.3425400248211155</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.426208655924447</v>
+        <v>-0.3899811552485479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3502529523446969</v>
+        <v>-0.3685411311074029</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2743669674567446</v>
+        <v>-0.249829750175163</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3002246888279597</v>
+        <v>-0.297561341237249</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4265520040842422</v>
+        <v>-0.3838466691003501</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.649143693318407</v>
+        <v>1.679847247954264</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.29632328681963</v>
+        <v>1.353156515088852</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8125297118978047</v>
+        <v>0.960721266838276</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.130744796942775</v>
+        <v>2.286840422757221</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.671980327684733</v>
+        <v>1.850650035804449</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.820761252635254</v>
+        <v>1.548655242179085</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.224947406687966</v>
+        <v>1.217475022383941</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.066172559532565</v>
+        <v>1.182210424955118</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7044615213680091</v>
+        <v>0.7737155305118901</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.731804582668331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.171490716809316</v>
+        <v>1.171490716809315</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.512447194343017</v>
@@ -1092,7 +1092,7 @@
         <v>4.220145247050491</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8311671727543463</v>
+        <v>0.8311671727543456</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.630119570445073</v>
+        <v>-1.445997906503229</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4668814660404078</v>
+        <v>0.1299850896381139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.019974293423115</v>
+        <v>-1.071940225693718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.563746156019139</v>
+        <v>-6.666931272995822</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.333442100774366</v>
+        <v>2.609812192872704</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.835478463941786</v>
+        <v>-6.181987910373302</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.086074355609533</v>
+        <v>-1.997703279326932</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.73350038268568</v>
+        <v>1.905583285365754</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.157402836405393</v>
+        <v>-1.23782098918971</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.271057107854485</v>
+        <v>2.2188071214272</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.490711438553856</v>
+        <v>5.232034551436724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.967578753287805</v>
+        <v>3.750648126940598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.789270280746376</v>
+        <v>2.183255675569709</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.02306869808735</v>
+        <v>15.78286851437823</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.677409903832566</v>
+        <v>3.62088709938137</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.750399835037255</v>
+        <v>1.634062425273605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.952825737995891</v>
+        <v>6.618367052968519</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.908060730075604</v>
+        <v>2.835982757605947</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.9247310612878961</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3965561302287053</v>
+        <v>0.3965561302287051</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2775502118009556</v>
@@ -1197,7 +1197,7 @@
         <v>1.190904966793369</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2345514327879035</v>
+        <v>0.2345514327879033</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4140046375337803</v>
+        <v>-0.3731733549010339</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.08267390012337764</v>
+        <v>0.02142453884366365</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.294756428431105</v>
+        <v>-0.3164542705713337</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7373165689142122</v>
+        <v>-0.7598016063833354</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06328342161185457</v>
+        <v>0.1951323843147856</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6378190658622621</v>
+        <v>-0.6635457392028338</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4419469844953027</v>
+        <v>-0.4479207251009431</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3500641726823031</v>
+        <v>0.3673978341437129</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2729683321334957</v>
+        <v>-0.2838478350478904</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.220815796791006</v>
+        <v>1.139476526840628</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.928069319616583</v>
+        <v>2.601502696190565</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.890986185107498</v>
+        <v>1.735068562150223</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.011672826374616</v>
+        <v>0.817893876310106</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.235445385537231</v>
+        <v>5.395620349079624</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.583474162313331</v>
+        <v>1.418606830175065</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6858598864904671</v>
+        <v>0.5941350446130824</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.659634782403849</v>
+        <v>2.623467183536707</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.127699855259317</v>
+        <v>1.111354094519202</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.923842221717057</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.005953585933922423</v>
+        <v>-0.005953585933921729</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.220211384130391</v>
+        <v>-2.199631515446667</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.046519050170549</v>
+        <v>-0.1018704873667871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.502697186467305</v>
+        <v>-1.567691413806612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.767565353360396</v>
+        <v>-1.752893997623976</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.859487719078983</v>
+        <v>1.951188341336074</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.075799338010508</v>
+        <v>-2.059668293861038</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.667672175687185</v>
+        <v>-1.603532114520188</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.398529121976412</v>
+        <v>1.538292798329419</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.250741664435452</v>
+        <v>-1.141660096122459</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5898445703148653</v>
+        <v>0.5096357628652544</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.098870113199282</v>
+        <v>3.224487593738955</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.265388218860249</v>
+        <v>1.321774994105549</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.584536594308036</v>
+        <v>2.559431431904013</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.129186641664534</v>
+        <v>7.305960499339305</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.994868241370985</v>
+        <v>1.724556350486612</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.806086025033904</v>
+        <v>0.9193737186156079</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.413727611007793</v>
+        <v>4.346082932153918</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.075143990850222</v>
+        <v>1.115736849159361</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.8140905145890546</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.001657667366794763</v>
+        <v>-0.001657667366794569</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5692025301584319</v>
+        <v>-0.5637581988048096</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.008189359285432539</v>
+        <v>-0.02894979366055516</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4037824826988134</v>
+        <v>-0.4082321510204583</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3236876367640233</v>
+        <v>-0.3156674907170418</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2858739691864977</v>
+        <v>0.2949737205895218</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3722180609666966</v>
+        <v>-0.3585920297280811</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.380257749676779</v>
+        <v>-0.3829282621392002</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3289135669253019</v>
+        <v>0.3164662158904426</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2916013705748651</v>
+        <v>-0.2693085462365195</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2852668093814429</v>
+        <v>0.2167728668750712</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.302745596610258</v>
+        <v>1.297711970027209</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5051528081414273</v>
+        <v>0.5412927314812176</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7436483663188849</v>
+        <v>0.7946820702529723</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.059910432725518</v>
+        <v>2.098922602546752</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6595522460468315</v>
+        <v>0.537331443965293</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2573143985654598</v>
+        <v>0.3230937124802104</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.461988989849637</v>
+        <v>1.390589957859826</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3729347020171271</v>
+        <v>0.375111825926508</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.384764223232347</v>
+        <v>-2.114084868182569</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5643536057590691</v>
+        <v>-0.4380313065597682</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.389259632110081</v>
+        <v>-1.650864800837168</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.437413615030816</v>
+        <v>-1.560809828239747</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.713981094196884</v>
+        <v>7.998390067689932</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.401915986769593</v>
+        <v>-1.362165371974576</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.069603204374457</v>
+        <v>-1.052561799441143</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.735734291471023</v>
+        <v>4.627056164983537</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9505159432454032</v>
+        <v>-0.9931084604114616</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.692662224298777</v>
+        <v>2.711664234584531</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.801926737821342</v>
+        <v>4.838246112991963</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.517471893807302</v>
+        <v>3.30385134016859</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.598671640030377</v>
+        <v>3.823213785554951</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.54369877009755</v>
+        <v>14.61353682701631</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.335842810101945</v>
+        <v>3.284925872672301</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.588470124451561</v>
+        <v>2.783610893763745</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.087176184911439</v>
+        <v>9.124926262532025</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.676849121811563</v>
+        <v>2.634297245350134</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5060716278742879</v>
+        <v>-0.4991158705736076</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1431263483182343</v>
+        <v>-0.1209784509758426</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3235864224248367</v>
+        <v>-0.3710885885828156</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2095658846460415</v>
+        <v>-0.2529305049575828</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.114525920836207</v>
+        <v>1.151529273288658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2155750489675463</v>
+        <v>-0.2123161982760102</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2012422451855718</v>
+        <v>-0.192761120276664</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.825138864351427</v>
+        <v>0.8343823437226349</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1784434956740732</v>
+        <v>-0.1785511775486693</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.295399903542535</v>
+        <v>1.403841381102746</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.776161760668815</v>
+        <v>2.765290532731472</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.053577423705143</v>
+        <v>1.627582564416703</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9567031320814263</v>
+        <v>0.9639058854513823</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.702966642019673</v>
+        <v>3.810528674679371</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.878249919660163</v>
+        <v>0.8592497132803724</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.757477716960457</v>
+        <v>0.8161476064280605</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.610671628583017</v>
+        <v>2.666131503844529</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7964829527451533</v>
+        <v>0.7631346021724483</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.812375033551562</v>
+        <v>-1.993944238420093</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.3938378827392989</v>
+        <v>-0.3762392806696482</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.88148650664603</v>
+        <v>-1.901744785988367</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.080224982186148</v>
+        <v>-2.010418298667751</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.602719063978071</v>
+        <v>4.428926787688887</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.958184427117363</v>
+        <v>-1.993871138907709</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.686483081745756</v>
+        <v>-1.610796157429657</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.770046592122698</v>
+        <v>3.86399561124953</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.798178064490769</v>
+        <v>-1.72593212687067</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.452859589958582</v>
+        <v>2.350751418207014</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.716824847924923</v>
+        <v>4.795509485360702</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.626987696464676</v>
+        <v>2.748418629000026</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.50004044538951</v>
+        <v>1.544893232522583</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>9.378496915781112</v>
+        <v>9.451991406323383</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.857544529274658</v>
+        <v>1.716592513414767</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.403793919600392</v>
+        <v>1.424579682277283</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.693700370066918</v>
+        <v>7.830999746654177</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.257948253707932</v>
+        <v>1.294730609957178</v>
       </c>
     </row>
     <row r="37">
@@ -1850,29 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7820590363805574</v>
+        <v>-0.8745193007101006</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3233102262889017</v>
-      </c>
-      <c r="E38" s="6" t="inlineStr"/>
+        <v>-0.2444884605529484</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.9042551703178919</v>
+      </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3376999387096348</v>
+        <v>-0.3257368810347964</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7366111506696974</v>
+        <v>0.698806780534161</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3050545019829588</v>
+        <v>-0.3251599789623844</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3318765587992836</v>
+        <v>-0.3101424006547192</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.6899229651903936</v>
+        <v>0.6886878275187621</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3290225368445591</v>
+        <v>-0.3359018267315596</v>
       </c>
     </row>
     <row r="39">
@@ -1883,29 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.187101399045194</v>
+        <v>3.693317378275928</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6.55128003017704</v>
-      </c>
-      <c r="E39" s="6" t="inlineStr"/>
+        <v>6.197915471755469</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>5.273346841110572</v>
+      </c>
       <c r="F39" s="6" t="n">
-        <v>0.3512183587979149</v>
+        <v>0.3717042797546523</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.095620744711501</v>
+        <v>2.157117820054218</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.43366729529117</v>
+        <v>0.361941127568688</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3849308366207949</v>
+        <v>0.4003381860667543</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.002954302223957</v>
+        <v>1.966095794359441</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.326264811610887</v>
+        <v>0.3235428997726962</v>
       </c>
     </row>
     <row r="40">
@@ -1944,7 +1948,7 @@
         <v>4.147667975036937</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.3154458752317596</v>
+        <v>0.3154458752317589</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5055338436098534</v>
+        <v>-0.588924880763387</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.8735770473119403</v>
+        <v>0.9202915641532132</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.3514762900752497</v>
+        <v>-0.3169496597914373</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6604669533532137</v>
+        <v>-0.7314372751971274</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.137290250367178</v>
+        <v>5.167589659135012</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8546320318011207</v>
+        <v>-0.9035893623226509</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4034347096228876</v>
+        <v>-0.4087937194236971</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.404674358243956</v>
+        <v>3.356221383476393</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2582503702952587</v>
+        <v>-0.3194134053299392</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.152228113111589</v>
+        <v>1.045048237528326</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.668119510536917</v>
+        <v>2.7370104748223</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.330216789104142</v>
+        <v>1.401348175604076</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.368838577203516</v>
+        <v>1.424821095167312</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.845647380109925</v>
+        <v>7.772010414254944</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.019870480801227</v>
+        <v>1.029396377981458</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.96263597079741</v>
+        <v>0.9545817931555953</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.070984777601173</v>
+        <v>4.957598971802866</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.9456974005770665</v>
+        <v>0.9352806638673148</v>
       </c>
     </row>
     <row r="43">
@@ -2049,7 +2053,7 @@
         <v>1.1215128731208</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.08529530617554444</v>
+        <v>0.08529530617554426</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1636933859264294</v>
+        <v>-0.1890905203842773</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2760998357943064</v>
+        <v>0.2887658076838632</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1079068179915564</v>
+        <v>-0.1065888891088939</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1295336121313892</v>
+        <v>-0.1409943845991218</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.9767412533948111</v>
+        <v>0.994146907951286</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1677480041672139</v>
+        <v>-0.1696285990187396</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.097835443823789</v>
+        <v>-0.1019222338455939</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.8380003127268338</v>
+        <v>0.8276550383166017</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.06487876616437513</v>
+        <v>-0.07439836104656937</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4970944799052415</v>
+        <v>0.4331674251007269</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.121377435748717</v>
+        <v>1.145508430448912</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5629620174368263</v>
+        <v>0.5955387675888816</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3401831372440086</v>
+        <v>0.3570991276815401</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.9149309534595</v>
+        <v>1.893078073097935</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2513133889773823</v>
+        <v>0.2568177300471262</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2907091744130971</v>
+        <v>0.2772729589049732</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.518673905809379</v>
+        <v>1.456241560558972</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2875463401422355</v>
+        <v>0.2702647251368331</v>
       </c>
     </row>
     <row r="46">
